--- a/mun/new.xlsx
+++ b/mun/new.xlsx
@@ -20,120 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="165">
-  <si>
-    <t xml:space="preserve">Deeva Baldwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deeva24102007@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="131">
+  <si>
+    <t xml:space="preserve">Pedaballe Sashreek Reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sashreekreddy12345@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">pwd</t>
   </si>
   <si>
     <t xml:space="preserve">nil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna Agarwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krishnaagarwal3110@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasham Ramakrishna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhamakrishna03@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manne. Nihaar Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shades69420@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vridhi Parakh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vridhi2104@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manish Gaikwad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gaikawadkalpana199@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhanvika Pudhota </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pudhotadhanvika@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalvakuntla Vedavyas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ty2755709@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chintala Shreyas Reddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shreyaschintala@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doli Mittal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dolimittal08@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roshini Chenna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roshchenna@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayush Mantri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushmantri0203@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanshika Raichandani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshikaraichandani4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isha Rajput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ishar0368@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chhavi Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reach2chhavi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piyush Jangid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dspsjangid9620@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kashvi Agarwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kashviag27@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedaballe Sashreek Reddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sashreekreddy12345@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Gouri Naik</t>
@@ -795,7 +693,7 @@
   <dimension ref="A2:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2218,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -2250,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -2314,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -2538,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -2602,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -2634,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -2762,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -2794,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -2858,970 +2756,443 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J73" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J74" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J77" s="1" t="n">
-        <v>0</v>
+      <c r="A77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>0</v>
+      <c r="A78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J79" s="1" t="n">
-        <v>0</v>
+      <c r="A79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="1" t="n">
-        <v>0</v>
+      <c r="A80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="1" t="n">
-        <v>0</v>
+      <c r="A81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J82" s="1" t="n">
-        <v>0</v>
+      <c r="A82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="A84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="A85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="A86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="A87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="A88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="A89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="A90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="A91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="A92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="A93" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
